--- a/mGPGCD-Bezout/test-10-3-tests.xlsx
+++ b/mGPGCD-Bezout/test-10-3-tests.xlsx
@@ -61,24 +61,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
-      <c r="B2" t="n">
-        <v>50.406</v>
+      <c r="B11" t="n">
+        <v>23.859</v>
       </c>
-      <c r="C2" t="n">
-        <v>100.0</v>
+      <c r="C11" t="n">
+        <v>46.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.35808092232738</v>
-      </c>
-      <c r="E2" t="n">
-        <v>35.918054290265545</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.28763457264014E-14</v>
+      <c r="D11" t="n">
+        <v>1.6742454441366514</v>
       </c>
     </row>
   </sheetData>
